--- a/Record/进度记录.xlsx
+++ b/Record/进度记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework\Learn4Work\Record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459FEC44-98CB-4E1C-8A86-380EED818627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F97D45-96C7-46F4-85D7-2C1858B00C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,11 +71,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腾讯</t>
+    <t>WillianSnow</t>
+  </si>
+  <si>
+    <t>Huawei+031212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央软件院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/jobs/center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.huawei.com/reccampportal/portal5/user-index.html?v=21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州工作室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏服务器开发实习生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bytedance.com/campus/position/application?external_referral_code=5VJKE5J</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +151,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -131,17 +194,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,14 +490,20 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="44.21875" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -467,56 +541,90 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.1399999999999997</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.1399999999999997</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.18</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -531,7 +639,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -546,7 +654,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -563,7 +671,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0C597D92-A888-4BB5-B3DA-E36953EABC64}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{8F9B50D8-7364-4691-9C02-C940A5CA50DD}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{E420E016-16B3-4904-883C-771E28913646}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>